--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC1_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC1_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.184050339770828</v>
+        <v>0.1763580320785203</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.18405033977082796, 'ngram_match_score': 0.04500653599041117, 'weighted_ngram_match_score': 0.07809975119565088, 'syntax_match_score': 0.4900181488203267, 'dataflow_match_score': 0.12307692307692308}</t>
+          <t>{'codebleu': 0.17635803207852027, 'ngram_match_score': 0.04500653599041117, 'weighted_ngram_match_score': 0.07809975119565088, 'syntax_match_score': 0.4900181488203267, 'dataflow_match_score': 0.09230769230769231}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC1_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/5/UC1_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1763580320785203</v>
+        <v>0.1872554679759562</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.17635803207852027, 'ngram_match_score': 0.04500653599041117, 'weighted_ngram_match_score': 0.07809975119565088, 'syntax_match_score': 0.4900181488203267, 'dataflow_match_score': 0.09230769230769231}</t>
+          <t>{'codebleu': 0.18725546797595616, 'ngram_match_score': 0.04500653599041117, 'weighted_ngram_match_score': 0.07809975119565088, 'syntax_match_score': 0.4900181488203267, 'dataflow_match_score': 0.1358974358974359}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
